--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -380,6 +380,14 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>41554</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.20138888888888887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -26,8 +26,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -56,7 +62,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -382,15 +388,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>41554</v>
+        <v>41553</v>
       </c>
       <c r="B3" s="2">
         <v>0.20138888888888887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>41554</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.14583333333333334</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -26,14 +26,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -59,10 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -402,6 +397,14 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>41555</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.17361111111111113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -405,6 +405,17 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B7" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -407,14 +407,19 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>41527</v>
+        <v>41557</v>
       </c>
       <c r="B6" s="3">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="3"/>
+      <c r="A7" s="1">
+        <v>41558</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1388888888888889</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B4:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -421,6 +421,22 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>41559</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>41560</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.1875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -437,6 +437,14 @@
         <v>0.1875</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.6805555555555566E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -445,6 +445,14 @@
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.375E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -453,6 +453,14 @@
         <v>9.375E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>41564</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.11805555555555557</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -461,6 +461,14 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>41565</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -469,6 +469,14 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>41567</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1423611111111111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B4:B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -477,6 +477,22 @@
         <v>0.1423611111111111</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>41568</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>41569</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -493,6 +493,22 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>41570</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>41572</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.9861111111111105E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -509,6 +509,46 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>41575</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>41577</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B2:B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -549,6 +549,14 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>41369</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
+++ b/doc/Projetos/Alternativa Marcas e Patentes LTDA/Apropriações Mauro.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -551,10 +551,26 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>41369</v>
+        <v>41583</v>
       </c>
       <c r="B24" s="3">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
   </sheetData>
